--- a/Notebooks/Test_Features.xlsx
+++ b/Notebooks/Test_Features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slb001-my.sharepoint.com/personal/lvenkataramanan_slb_com/Documents/Work/SPWLA/Workshop/Python Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvenkataramanan\OneDrive - Schlumberger\Work\SPWLA\Workshop\Python Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{86FE7DFF-1A92-4FE4-BBA6-874E19977181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB1374BA-7687-4D7A-877B-A38B6A447856}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411C3E2-FC98-46A5-B2D7-D759F38B1656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15990" xr2:uid="{7F70F141-06C0-4971-A031-3BBDEDCCDB93}"/>
   </bookViews>
@@ -1485,13 +1485,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09A4AC55DB23B409F9930A45A577CF8" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1f5edd484ebb15b2d5e1cdc541084bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7eb5e0e6-c3bc-4107-a33a-80c64eb88319" xmlns:ns4="fedaa18d-8384-436c-aaa0-67ec6927a806" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b66db12c8a1ed0063f6c2d0412b65e2d" ns3:_="" ns4:_="">
     <xsd:import namespace="7eb5e0e6-c3bc-4107-a33a-80c64eb88319"/>
@@ -1714,22 +1726,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558EF8FA-7AA2-4849-8B52-8F73180B2FE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7eb5e0e6-c3bc-4107-a33a-80c64eb88319"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fedaa18d-8384-436c-aaa0-67ec6927a806"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED34D8F-ED93-46CB-BE4E-65ACE1A1C8AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{587BF2CF-DA01-4EC2-9C29-ECA90E8778AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1746,29 +1768,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED34D8F-ED93-46CB-BE4E-65ACE1A1C8AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558EF8FA-7AA2-4849-8B52-8F73180B2FE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7eb5e0e6-c3bc-4107-a33a-80c64eb88319"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fedaa18d-8384-436c-aaa0-67ec6927a806"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Notebooks/Test_Features.xlsx
+++ b/Notebooks/Test_Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvenkataramanan\OneDrive - Schlumberger\Work\SPWLA\Workshop\Python Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BANAMZ\OneDrive - LR\SPWLA\2021 - ML and AI Workshop\Github\Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411C3E2-FC98-46A5-B2D7-D759F38B1656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F411C3E2-FC98-46A5-B2D7-D759F38B1656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{910F94C6-7EA9-4FCB-AD46-8BFADD51BE1D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15990" xr2:uid="{7F70F141-06C0-4971-A031-3BBDEDCCDB93}"/>
+    <workbookView xWindow="23115" yWindow="7320" windowWidth="22785" windowHeight="11970" xr2:uid="{7F70F141-06C0-4971-A031-3BBDEDCCDB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
@@ -1489,21 +1489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09A4AC55DB23B409F9930A45A577CF8" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1f5edd484ebb15b2d5e1cdc541084bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7eb5e0e6-c3bc-4107-a33a-80c64eb88319" xmlns:ns4="fedaa18d-8384-436c-aaa0-67ec6927a806" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b66db12c8a1ed0063f6c2d0412b65e2d" ns3:_="" ns4:_="">
     <xsd:import namespace="7eb5e0e6-c3bc-4107-a33a-80c64eb88319"/>
@@ -1726,32 +1711,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558EF8FA-7AA2-4849-8B52-8F73180B2FE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7eb5e0e6-c3bc-4107-a33a-80c64eb88319"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fedaa18d-8384-436c-aaa0-67ec6927a806"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED34D8F-ED93-46CB-BE4E-65ACE1A1C8AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{587BF2CF-DA01-4EC2-9C29-ECA90E8778AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1768,4 +1743,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED34D8F-ED93-46CB-BE4E-65ACE1A1C8AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558EF8FA-7AA2-4849-8B52-8F73180B2FE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7eb5e0e6-c3bc-4107-a33a-80c64eb88319"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fedaa18d-8384-436c-aaa0-67ec6927a806"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>